--- a/Base de données/Jeu de données.xlsx
+++ b/Base de données/Jeu de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>IdTypeEmploye</t>
   </si>
@@ -438,6 +438,21 @@
   </si>
   <si>
     <t>Chèque Vacances</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>54.99</t>
+  </si>
+  <si>
+    <t>69.99</t>
+  </si>
+  <si>
+    <t>134.99</t>
   </si>
 </sst>
 </file>
@@ -593,7 +608,37 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
@@ -715,12 +760,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="IdTypeEmploye" dataDxfId="8"/>
-    <tableColumn id="2" name="LibelleTypeEmploye" dataDxfId="7"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="3">
+    <tableColumn id="1" name="IdTypeEmploye" dataDxfId="18"/>
+    <tableColumn id="2" name="LibelleTypeEmploye" dataDxfId="17"/>
+    <tableColumn id="3" name="Colonne1" dataDxfId="13">
       <calculatedColumnFormula>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -729,25 +774,31 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="D32:G37" totalsRowShown="0">
-  <autoFilter ref="D32:G37"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau10" displayName="Tableau10" ref="D32:H37" totalsRowShown="0">
+  <autoFilter ref="D32:H37"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="IdPrestation"/>
     <tableColumn id="2" name="LibellePrestation"/>
     <tableColumn id="3" name="DescriptionPrestation"/>
     <tableColumn id="4" name="PrixPrestation"/>
+    <tableColumn id="5" name="Colonne1" dataDxfId="1">
+      <calculatedColumnFormula>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau11" displayName="Tableau11" ref="A40:C44" totalsRowShown="0">
-  <autoFilter ref="A40:C44"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau11" displayName="Tableau11" ref="A40:D44" totalsRowShown="0">
+  <autoFilter ref="A40:D44"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="IdFidelite"/>
     <tableColumn id="2" name="LibelleFidelite"/>
-    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="5"/>
+    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="15"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,7 +811,7 @@
     <tableColumn id="1" name="IdHistoriqueNettoyage"/>
     <tableColumn id="2" name="Employé"/>
     <tableColumn id="3" name="Chambre"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="4"/>
+    <tableColumn id="4" name="DateHeure" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,8 +863,8 @@
   <tableColumns count="7">
     <tableColumn id="1" name="IdReservation"/>
     <tableColumn id="2" name="NumReservation"/>
-    <tableColumn id="3" name="DateDebut" dataDxfId="2"/>
-    <tableColumn id="4" name="DateFin" dataDxfId="1"/>
+    <tableColumn id="3" name="DateDebut" dataDxfId="12"/>
+    <tableColumn id="4" name="DateFin" dataDxfId="11"/>
     <tableColumn id="5" name="NbPersonnes"/>
     <tableColumn id="6" name="NbChambres"/>
     <tableColumn id="7" name="Client"/>
@@ -829,7 +880,7 @@
     <tableColumn id="1" name="IdHistoriqueActions"/>
     <tableColumn id="2" name="Employe"/>
     <tableColumn id="3" name="Reservation"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="0"/>
+    <tableColumn id="4" name="DateHeure" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,98 +902,122 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="D1:I6" totalsRowShown="0">
-  <autoFilter ref="D1:I6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="D1:J6" totalsRowShown="0">
+  <autoFilter ref="D1:J6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="IdEmploye"/>
     <tableColumn id="2" name="NomEmploye"/>
     <tableColumn id="3" name="PrenomEmploye"/>
     <tableColumn id="4" name="Identifiant"/>
     <tableColumn id="5" name="Mdp"/>
     <tableColumn id="6" name="Rôle"/>
+    <tableColumn id="7" name="Colonne1" dataDxfId="9">
+      <calculatedColumnFormula>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A9:C14" totalsRowShown="0">
-  <autoFilter ref="A9:C14"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A9:D14" totalsRowShown="0">
+  <autoFilter ref="A9:D14"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="IdTypeChambre"/>
     <tableColumn id="2" name="LibelleTypeChambre"/>
     <tableColumn id="3" name="PrixChambre"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="8">
+      <calculatedColumnFormula>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C11 &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="E9:G12" totalsRowShown="0">
-  <autoFilter ref="E9:G12"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="E9:H12" totalsRowShown="0">
+  <autoFilter ref="E9:H12"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="IdEquipementChambre"/>
     <tableColumn id="2" name="LibelleEquipementChambre"/>
     <tableColumn id="3" name="DescriptionEquipementChambre"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="7">
+      <calculatedColumnFormula>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A17:B21" totalsRowShown="0">
-  <autoFilter ref="A17:B21"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A17:C21" totalsRowShown="0">
+  <autoFilter ref="A17:C21"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="IdEtage"/>
     <tableColumn id="2" name="NumEtage"/>
+    <tableColumn id="3" name="Colonne1" dataDxfId="6">
+      <calculatedColumnFormula>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="D17:E20" totalsRowShown="0">
-  <autoFilter ref="D17:E20"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="D17:F20" totalsRowShown="0">
+  <autoFilter ref="D17:F20"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="IdStatutChambre"/>
     <tableColumn id="2" name="LibelleStatutChambre"/>
+    <tableColumn id="3" name="Colonne1" dataDxfId="5">
+      <calculatedColumnFormula>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="A24:E29" totalsRowShown="0">
-  <autoFilter ref="A24:E29"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="A24:F29" totalsRowShown="0">
+  <autoFilter ref="A24:F29"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="IdChambre"/>
     <tableColumn id="2" name="NumChambre"/>
     <tableColumn id="3" name="TypeChambre"/>
     <tableColumn id="4" name="StatutChambre"/>
     <tableColumn id="5" name="Etage"/>
+    <tableColumn id="6" name="Colonne1" dataDxfId="4">
+      <calculatedColumnFormula>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="G24:I29" totalsRowShown="0">
-  <autoFilter ref="G24:I29"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="G24:J29" totalsRowShown="0">
+  <autoFilter ref="G24:J29"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="IdPossessionEquipement"/>
     <tableColumn id="2" name="Chambre"/>
     <tableColumn id="3" name="Equipement"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="3">
+      <calculatedColumnFormula>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A32:B36" totalsRowShown="0">
-  <autoFilter ref="A32:B36"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A32:C36" totalsRowShown="0">
+  <autoFilter ref="A32:C36"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="IdTypePaiement"/>
     <tableColumn id="2" name="LibelleTypePaiement"/>
+    <tableColumn id="3" name="Colonne1" dataDxfId="2">
+      <calculatedColumnFormula>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,13 +1299,14 @@
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="125.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1334,11 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1285,11 +1364,15 @@
       <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</f>
+        <v>INSERT INTO Employes VALUES(1,"Dupond","Jean","j.dupond","jbvmzr145Gqlkdjfghqmehbmdjbhmzkeghlmzqejbhbhtr",1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1315,11 +1398,15 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</f>
+        <v>INSERT INTO Employes VALUES(2,"Avotservice","Gilbert","g.avotservice","jszhdikuzjsehrgmozerbgmozejrbgmkezbmoeeRG4",2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1345,11 +1432,15 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</f>
+        <v>INSERT INTO Employes VALUES(3,"Uitout","Jess","j.uitout","kfbkfnbir!5uhgmieqzrjbgmizearbglmizerqbiblrez",3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>4</v>
       </c>
@@ -1365,11 +1456,15 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</f>
+        <v>INSERT INTO Employes VALUES(4,"Duchmol","Pierre","p.duchmol","fgjbkljfgdh21smrgzheùoihgzmeorhgmzlerngmze",2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
@@ -1385,11 +1480,15 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="str">
+        <f>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</f>
+        <v>INSERT INTO Employes VALUES(5,"Patate","Micheline","m.patate","AQEThetha!581qdf14dfg65er4g6e4g65er4ge65rghetrqaethzetheryj",3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1399,6 +1498,9 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
@@ -1408,8 +1510,11 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1419,6 +1524,10 @@
       <c r="C10">
         <v>50</v>
       </c>
+      <c r="D10" t="str">
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C11 &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(1,"Standard Simple",54.99);</v>
+      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1428,16 +1537,24 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</f>
+        <v>INSERT INTO EquipementsChambres VALUES(1,"Coffre-fort","Un coffre-fort pour stocker les objets de valeurs en sécurité");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>54.99</v>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C12 &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(2,"Standard Double",65);</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1448,8 +1565,12 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</f>
+        <v>INSERT INTO EquipementsChambres VALUES(2,"Mini-bar","Un mini-bar rempli de différentes boissons alcoolisées ou non");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1459,6 +1580,10 @@
       <c r="C12">
         <v>65</v>
       </c>
+      <c r="D12" t="str">
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C13 &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(3,"Deluxe Simple",69.99);</v>
+      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1468,63 +1593,93 @@
       <c r="G12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</f>
+        <v>INSERT INTO EquipementsChambres VALUES(3,"Climatisation","Une climatisation pour réguler la température de la chambre");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C14 &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(4,"Deluxe Double",134.99);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>134.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C15 &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(5,"Suite",);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18" t="str">
+        <f>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</f>
+        <v>INSERT INTO Etages VALUES(1,0);</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</f>
+        <v>INSERT INTO StatutsChambres VALUES(1,"Libre");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</f>
+        <v>INSERT INTO Etages VALUES(2,1);</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1532,13 +1687,21 @@
       <c r="E19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</f>
+        <v>INSERT INTO StatutsChambres VALUES(2,"Occupé");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
         <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</f>
+        <v>INSERT INTO Etages VALUES(3,2);</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1546,16 +1709,24 @@
       <c r="E20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</f>
+        <v>INSERT INTO StatutsChambres VALUES(3,"Nettoyage en cours");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</f>
+        <v>INSERT INTO Etages VALUES(4,3);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1571,6 +1742,9 @@
       <c r="E24" t="s">
         <v>66</v>
       </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
       <c r="G24" t="s">
         <v>67</v>
       </c>
@@ -1580,144 +1754,190 @@
       <c r="I24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25">
         <v>101</v>
       </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</f>
+        <v>INSERT INTO Chambres VALUES(1,101,1,1,2);</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>201</v>
-      </c>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(1,3,1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</f>
+        <v>INSERT INTO Chambres VALUES(2,102,1,2,2);</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
-        <v>202</v>
-      </c>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="str">
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(2,4,1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
         <v>201</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F27" t="str">
+        <f>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</f>
+        <v>INSERT INTO Chambres VALUES(3,201,3,3,3);</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
-        <v>301</v>
-      </c>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="str">
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(3,5,1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>202</v>
       </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F28" t="str">
+        <f>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</f>
+        <v>INSERT INTO Chambres VALUES(4,202,3,1,3);</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
-        <v>301</v>
-      </c>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="str">
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(4,5,2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
         <v>301</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F29" t="str">
+        <f>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</f>
+        <v>INSERT INTO Chambres VALUES(5,301,5,2,4);</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29">
-        <v>301</v>
-      </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="str">
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(5,5,3);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
       </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
       <c r="D32" t="s">
         <v>76</v>
       </c>
@@ -1730,14 +1950,21 @@
       <c r="G32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
+      <c r="C33" t="str">
+        <f>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</f>
+        <v>INSERT INTO TypesPaiements VALUES(1,"Espèces");</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -1750,14 +1977,22 @@
       <c r="G33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
+        <v>INSERT INTO Prestations VALUES(1,"Petit-déjeuner","Petit-déjeuner servi dans la salle de restauration",5);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
+      <c r="C34" t="str">
+        <f>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</f>
+        <v>INSERT INTO TypesPaiements VALUES(2,"Carte bancaire");</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -1767,17 +2002,25 @@
       <c r="F34" t="s">
         <v>93</v>
       </c>
-      <c r="G34">
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="str">
+        <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
+        <v>INSERT INTO Prestations VALUES(2,"Petit-déjeuner en chambre","Petit-déjeuner servi directement en chambre par un de nos employés",8.99);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
+      <c r="C35" t="str">
+        <f>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</f>
+        <v>INSERT INTO TypesPaiements VALUES(3,"Chèque");</v>
+      </c>
       <c r="D35">
         <v>3</v>
       </c>
@@ -1790,14 +2033,22 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
+        <v>INSERT INTO Prestations VALUES(3,"Réveil","Réveil par un employé de l'hôtel à une heure convenue",0);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
+      <c r="C36" t="str">
+        <f>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</f>
+        <v>INSERT INTO TypesPaiements VALUES(4,"Chèque vacances");</v>
+      </c>
       <c r="D36">
         <v>4</v>
       </c>
@@ -1810,8 +2061,12 @@
       <c r="G36">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
+        <v>INSERT INTO Prestations VALUES(4,"Massage","Massage de détente réalisé par notre masseur partenaire",45);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>5</v>
       </c>
@@ -1821,11 +2076,15 @@
       <c r="F37" t="s">
         <v>88</v>
       </c>
-      <c r="G37">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" t="str">
+        <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
+        <v>INSERT INTO Prestations VALUES(5,"Lit d'appoint","Ajout d'un lit d'appoint dans une chambre",14.99);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1835,8 +2094,11 @@
       <c r="C40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1846,8 +2108,12 @@
       <c r="C41" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</f>
+        <v>INSERT INTO Fidelites VALUES(1,"Bronze","Réduction de 5% sur les chambres de type Standard");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1857,8 +2123,12 @@
       <c r="C42" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</f>
+        <v>INSERT INTO Fidelites VALUES(2,"Argent","Réduction de 10% sur les chambres de type Standard et de 5% sur les chambres Deluxe");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1868,8 +2138,12 @@
       <c r="C43" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</f>
+        <v>INSERT INTO Fidelites VALUES(3,"Or","Réduction de 15% sur les chambres Standard et Deluxe, 5% sur les suites, consommation du mini-bar offerte le premier jour, petit-déjeuner en chambre à prix réduit");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1879,8 +2153,12 @@
       <c r="C44" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</f>
+        <v>INSERT INTO Fidelites VALUES(4,"Platine","Réduction de 20% sur le séjour, 50% de réduction sur le premier massage");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1894,7 +2172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>

--- a/Base de données/Jeu de données.xlsx
+++ b/Base de données/Jeu de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
   <si>
     <t>IdTypeEmploye</t>
   </si>
@@ -437,9 +437,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Chèque Vacances</t>
-  </si>
-  <si>
     <t>8.99</t>
   </si>
   <si>
@@ -453,6 +450,102 @@
   </si>
   <si>
     <t>134.99</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>HeureArriveePrevue</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>05/02/2023</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>08/02/2023</t>
+  </si>
+  <si>
+    <t>12/01/2023 09:35</t>
+  </si>
+  <si>
+    <t>12/01/2023 09:45</t>
+  </si>
+  <si>
+    <t>12/01/2023 10:35</t>
+  </si>
+  <si>
+    <t>12/12/2022 15:47</t>
+  </si>
+  <si>
+    <t>28/12/2022 16:12</t>
+  </si>
+  <si>
+    <t>02/01/2023 10:55</t>
+  </si>
+  <si>
+    <t>02/01/2023 16:18</t>
+  </si>
+  <si>
+    <t>12/01/2023 11:08</t>
+  </si>
+  <si>
+    <t>06/01/2023 07:00</t>
+  </si>
+  <si>
+    <t>06/01/2023 07:30</t>
+  </si>
+  <si>
+    <t>07/01/2023 09:00</t>
+  </si>
+  <si>
+    <t>07/01/2023 14:30</t>
+  </si>
+  <si>
+    <t>08/01/2023 09:00</t>
+  </si>
+  <si>
+    <t>09/01/2023 09:00</t>
+  </si>
+  <si>
+    <t>10/01/2023 09:30</t>
+  </si>
+  <si>
+    <t>11/01/2023 07:45</t>
+  </si>
+  <si>
+    <t>11/01/2023 08:30</t>
+  </si>
+  <si>
+    <t>NumFacture</t>
   </si>
 </sst>
 </file>
@@ -588,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -599,16 +692,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -640,19 +772,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -760,12 +880,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="IdTypeEmploye" dataDxfId="18"/>
-    <tableColumn id="2" name="LibelleTypeEmploye" dataDxfId="17"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="13">
+    <tableColumn id="1" name="IdTypeEmploye" dataDxfId="27"/>
+    <tableColumn id="2" name="LibelleTypeEmploye" dataDxfId="26"/>
+    <tableColumn id="3" name="Colonne1" dataDxfId="23">
       <calculatedColumnFormula>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -781,7 +901,7 @@
     <tableColumn id="2" name="LibellePrestation"/>
     <tableColumn id="3" name="DescriptionPrestation"/>
     <tableColumn id="4" name="PrixPrestation"/>
-    <tableColumn id="5" name="Colonne1" dataDxfId="1">
+    <tableColumn id="5" name="Colonne1" dataDxfId="14">
       <calculatedColumnFormula>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -795,8 +915,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="IdFidelite"/>
     <tableColumn id="2" name="LibelleFidelite"/>
-    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="15"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="0">
+    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="24"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="13">
       <calculatedColumnFormula>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -805,97 +925,120 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau12" displayName="Tableau12" ref="A47:D50" totalsRowShown="0">
-  <autoFilter ref="A47:D50"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tableau12" displayName="Tableau12" ref="A47:E50" totalsRowShown="0">
+  <autoFilter ref="A47:E50"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="IdHistoriqueNettoyage"/>
     <tableColumn id="2" name="Employé"/>
     <tableColumn id="3" name="Chambre"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="14"/>
+    <tableColumn id="4" name="DateHeure" dataDxfId="6"/>
+    <tableColumn id="5" name="Colonne1" dataDxfId="5">
+      <calculatedColumnFormula>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau13" displayName="Tableau13" ref="A53:E56" totalsRowShown="0">
-  <autoFilter ref="A53:E56"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau13" displayName="Tableau13" ref="A53:F56" totalsRowShown="0">
+  <autoFilter ref="A53:F56"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="IdClient"/>
     <tableColumn id="2" name="NomClient"/>
     <tableColumn id="3" name="PrenomClient"/>
     <tableColumn id="4" name="MailClient" dataCellStyle="Lien hypertexte"/>
     <tableColumn id="5" name="TelClient"/>
+    <tableColumn id="6" name="Colonne1" dataDxfId="4">
+      <calculatedColumnFormula>"INSERT INTO Clients VALUES(" &amp; Tableau13[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau13[[#This Row],[NomClient]] &amp; """,""" &amp;Tableau13[[#This Row],[PrenomClient]] &amp; """,""" &amp; Tableau13[[#This Row],[MailClient]] &amp; """,""" &amp; Tableau13[[#This Row],[TelClient]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau14" displayName="Tableau14" ref="A59:C61" totalsRowShown="0">
-  <autoFilter ref="A59:C61"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau14" displayName="Tableau14" ref="A59:D61" totalsRowShown="0">
+  <autoFilter ref="A59:D61"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="IdClient"/>
     <tableColumn id="2" name="NumParticulier"/>
     <tableColumn id="3" name="Fidelite"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="12">
+      <calculatedColumnFormula>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau15" displayName="Tableau15" ref="E59:I61" totalsRowShown="0">
-  <autoFilter ref="E59:I61"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau15" displayName="Tableau15" ref="E59:J61" totalsRowShown="0">
+  <autoFilter ref="E59:J61"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="IdClient"/>
     <tableColumn id="2" name="NomEntreprise"/>
     <tableColumn id="3" name="Siret"/>
     <tableColumn id="4" name="NumEntreprise"/>
     <tableColumn id="5" name="PourcentageReduction"/>
+    <tableColumn id="6" name="Colonne1" dataDxfId="11">
+      <calculatedColumnFormula>"INSERT INTO Entreprises VALUES(" &amp; Tableau15[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau15[[#This Row],[NomEntreprise]] &amp; """,""" &amp; Tableau15[[#This Row],[Siret]] &amp; """," &amp; Tableau15[[#This Row],[NumEntreprise]] &amp; "," &amp; Tableau15[[#This Row],[PourcentageReduction]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau16" displayName="Tableau16" ref="A64:G68" totalsRowShown="0">
-  <autoFilter ref="A64:G68"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="IdReservation"/>
-    <tableColumn id="2" name="NumReservation"/>
-    <tableColumn id="3" name="DateDebut" dataDxfId="12"/>
-    <tableColumn id="4" name="DateFin" dataDxfId="11"/>
-    <tableColumn id="5" name="NbPersonnes"/>
-    <tableColumn id="6" name="NbChambres"/>
-    <tableColumn id="7" name="Client"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau16" displayName="Tableau16" ref="A64:I68" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A64:I68"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="IdReservation" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="NumReservation" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="DateDebut" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="HeureArriveePrevue" dataDxfId="8"/>
+    <tableColumn id="4" name="DateFin" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="NbPersonnes" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="NbChambres" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Client" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Colonne1" dataDxfId="10" dataCellStyle="Normal">
+      <calculatedColumnFormula>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tableau17" displayName="Tableau17" ref="A70:D75" totalsRowShown="0">
-  <autoFilter ref="A70:D75"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tableau17" displayName="Tableau17" ref="A70:E75" totalsRowShown="0">
+  <autoFilter ref="A70:E75"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="IdHistoriqueActions"/>
     <tableColumn id="2" name="Employe"/>
     <tableColumn id="3" name="Reservation"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="10"/>
+    <tableColumn id="4" name="DateHeure" dataDxfId="3"/>
+    <tableColumn id="5" name="Colonne1" dataDxfId="1">
+      <calculatedColumnFormula>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tableau18" displayName="Tableau18" ref="A78:F87" totalsRowShown="0">
-  <autoFilter ref="A78:F87"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tableau18" displayName="Tableau18" ref="A78:H87" totalsRowShown="0">
+  <autoFilter ref="A78:H87"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="IdFacturation"/>
     <tableColumn id="2" name="Prestation"/>
     <tableColumn id="3" name="Reservation"/>
     <tableColumn id="4" name="TypePaiement"/>
+    <tableColumn id="8" name="NumFacture"/>
     <tableColumn id="5" name="Quantite"/>
-    <tableColumn id="6" name="Date"/>
+    <tableColumn id="6" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,7 +1054,7 @@
     <tableColumn id="4" name="Identifiant"/>
     <tableColumn id="5" name="Mdp"/>
     <tableColumn id="6" name="Rôle"/>
-    <tableColumn id="7" name="Colonne1" dataDxfId="9">
+    <tableColumn id="7" name="Colonne1" dataDxfId="22">
       <calculatedColumnFormula>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -926,7 +1069,7 @@
     <tableColumn id="1" name="IdTypeChambre"/>
     <tableColumn id="2" name="LibelleTypeChambre"/>
     <tableColumn id="3" name="PrixChambre"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="8">
+    <tableColumn id="4" name="Colonne1" dataDxfId="21">
       <calculatedColumnFormula>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C11 &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -941,7 +1084,7 @@
     <tableColumn id="1" name="IdEquipementChambre"/>
     <tableColumn id="2" name="LibelleEquipementChambre"/>
     <tableColumn id="3" name="DescriptionEquipementChambre"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="7">
+    <tableColumn id="4" name="Colonne1" dataDxfId="20">
       <calculatedColumnFormula>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -955,7 +1098,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdEtage"/>
     <tableColumn id="2" name="NumEtage"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="6">
+    <tableColumn id="3" name="Colonne1" dataDxfId="19">
       <calculatedColumnFormula>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -969,7 +1112,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdStatutChambre"/>
     <tableColumn id="2" name="LibelleStatutChambre"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="5">
+    <tableColumn id="3" name="Colonne1" dataDxfId="18">
       <calculatedColumnFormula>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -986,7 +1129,7 @@
     <tableColumn id="3" name="TypeChambre"/>
     <tableColumn id="4" name="StatutChambre"/>
     <tableColumn id="5" name="Etage"/>
-    <tableColumn id="6" name="Colonne1" dataDxfId="4">
+    <tableColumn id="6" name="Colonne1" dataDxfId="17">
       <calculatedColumnFormula>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1001,7 +1144,7 @@
     <tableColumn id="1" name="IdPossessionEquipement"/>
     <tableColumn id="2" name="Chambre"/>
     <tableColumn id="3" name="Equipement"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="3">
+    <tableColumn id="4" name="Colonne1" dataDxfId="16">
       <calculatedColumnFormula>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1015,7 +1158,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdTypePaiement"/>
     <tableColumn id="2" name="LibelleTypePaiement"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="2">
+    <tableColumn id="3" name="Colonne1" dataDxfId="15">
       <calculatedColumnFormula>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1288,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1440,7 @@
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
@@ -1313,7 +1456,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D1" t="s">
@@ -1550,7 +1693,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="str">
         <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C12 &amp; ");"</f>
@@ -1606,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="str">
         <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C14 &amp; ");"</f>
@@ -1621,7 +1764,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="str">
         <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C15 &amp; ");"</f>
@@ -2003,7 +2146,7 @@
         <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" t="str">
         <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
@@ -2077,7 +2220,7 @@
         <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" t="str">
         <f>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</f>
@@ -2171,50 +2314,65 @@
       <c r="D47" t="s">
         <v>96</v>
       </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
-        <v>12</v>
+      <c r="B48">
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>101</v>
-      </c>
-      <c r="D48" s="8">
-        <v>44938.399305555555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="str">
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(1,3,1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
-        <v>19</v>
+      <c r="B49">
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>202</v>
-      </c>
-      <c r="D49" s="8">
-        <v>44938.40625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="str">
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(2,5,4);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
-        <v>19</v>
+      <c r="B50">
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>301</v>
-      </c>
-      <c r="D50" s="8">
-        <v>44938.440972222219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" t="str">
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(3,5,5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -2230,8 +2388,11 @@
       <c r="E53" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2241,14 +2402,18 @@
       <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f>"INSERT INTO Clients VALUES(" &amp; Tableau13[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau13[[#This Row],[NomClient]] &amp; """,""" &amp;Tableau13[[#This Row],[PrenomClient]] &amp; """,""" &amp; Tableau13[[#This Row],[MailClient]] &amp; """,""" &amp; Tableau13[[#This Row],[TelClient]] &amp; """);"</f>
+        <v>INSERT INTO Clients VALUES(1,"Sérien","Jean","jean.sérien@gmail.com","06 01 02 03 04 05");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2258,14 +2423,18 @@
       <c r="C55" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f>"INSERT INTO Clients VALUES(" &amp; Tableau13[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau13[[#This Row],[NomClient]] &amp; """,""" &amp;Tableau13[[#This Row],[PrenomClient]] &amp; """,""" &amp; Tableau13[[#This Row],[MailClient]] &amp; """,""" &amp; Tableau13[[#This Row],[TelClient]] &amp; """);"</f>
+        <v>INSERT INTO Clients VALUES(2,"Megratt","Sam","sam.megratt@gmail,com","06 58 65 48 56 04");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2275,14 +2444,18 @@
       <c r="C56" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f>"INSERT INTO Clients VALUES(" &amp; Tableau13[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau13[[#This Row],[NomClient]] &amp; """,""" &amp;Tableau13[[#This Row],[PrenomClient]] &amp; """,""" &amp; Tableau13[[#This Row],[MailClient]] &amp; """,""" &amp; Tableau13[[#This Row],[TelClient]] &amp; """);"</f>
+        <v>INSERT INTO Clients VALUES(3,"Chmonfiss","Thierry","thierry.chmonfiss@gmail.com","07 54 97 25 35 40");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -2292,6 +2465,9 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
       <c r="E59" t="s">
         <v>98</v>
       </c>
@@ -2307,8 +2483,11 @@
       <c r="I59" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2318,6 +2497,10 @@
       <c r="C60" t="s">
         <v>34</v>
       </c>
+      <c r="D60" s="7" t="str">
+        <f>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</f>
+        <v>INSERT INTO Particuliers VALUES(1,10821,"Bronze");</v>
+      </c>
       <c r="E60">
         <v>2</v>
       </c>
@@ -2330,11 +2513,15 @@
       <c r="H60">
         <v>23554</v>
       </c>
-      <c r="I60">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60" t="str">
+        <f>"INSERT INTO Entreprises VALUES(" &amp; Tableau15[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau15[[#This Row],[NomEntreprise]] &amp; """,""" &amp; Tableau15[[#This Row],[Siret]] &amp; """," &amp; Tableau15[[#This Row],[NumEntreprise]] &amp; "," &amp; Tableau15[[#This Row],[PourcentageReduction]] &amp; ");"</f>
+        <v>INSERT INTO Entreprises VALUES(2,"Exploitation Inc.","54654658464",23554,0.08);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2344,6 +2531,10 @@
       <c r="C61" t="s">
         <v>36</v>
       </c>
+      <c r="D61" s="7" t="str">
+        <f>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</f>
+        <v>INSERT INTO Particuliers VALUES(3,20058,"Or");</v>
+      </c>
       <c r="E61">
         <v>3</v>
       </c>
@@ -2356,11 +2547,15 @@
       <c r="H61">
         <v>18552</v>
       </c>
-      <c r="I61">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" t="str">
+        <f>"INSERT INTO Entreprises VALUES(" &amp; Tableau15[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau15[[#This Row],[NomEntreprise]] &amp; """,""" &amp; Tableau15[[#This Row],[Siret]] &amp; """," &amp; Tableau15[[#This Row],[NumEntreprise]] &amp; "," &amp; Tableau15[[#This Row],[PourcentageReduction]] &amp; ");"</f>
+        <v>INSERT INTO Entreprises VALUES(3,"Richesse SARL","51514584885",18552,0.1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -2371,111 +2566,145 @@
         <v>124</v>
       </c>
       <c r="D64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" t="s">
         <v>125</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>126</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>127</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65">
         <v>23001</v>
       </c>
-      <c r="C65" s="9">
-        <v>44931</v>
-      </c>
-      <c r="D65" s="9">
-        <v>44932</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
+      <c r="C65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</f>
+        <v>INSERT INTO ReservationsSejours VALUES(1,23001,"05/01/2023","15:00","06/01/2023",2,1,1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66">
         <v>23002</v>
       </c>
-      <c r="C66" s="9">
-        <v>44932</v>
-      </c>
-      <c r="D66" s="9">
-        <v>44937</v>
-      </c>
-      <c r="E66">
+      <c r="C66" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="str">
+        <f>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</f>
+        <v>INSERT INTO ReservationsSejours VALUES(2,23002,"06/01/2023","17:00","11/01/2023",4,2,3);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67">
         <v>23500</v>
       </c>
-      <c r="C67" s="9">
-        <v>44936</v>
-      </c>
-      <c r="D67" s="9">
-        <v>44944</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="C67" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="str">
+        <f>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</f>
+        <v>INSERT INTO ReservationsSejours VALUES(3,23500,"10/01/2023","18:00","18/01/2023",1,1,2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68">
         <v>23545</v>
       </c>
-      <c r="C68" s="9">
-        <v>44962</v>
-      </c>
-      <c r="D68" s="9">
-        <v>44965</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
+      <c r="C68" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="str">
+        <f>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</f>
+        <v>INSERT INTO ReservationsSejours VALUES(4,23545,"05/02/2023","13:30","08/02/2023",2,1,3);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2488,78 +2717,101 @@
       <c r="D70" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
+      <c r="B71">
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>23001</v>
-      </c>
-      <c r="D71" s="8">
-        <v>44907.657638888886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="str">
+        <f>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriqueActionsReservations VALUES(1,2,1, "12/12/2022 15:47");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
-        <v>14</v>
+      <c r="B72">
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>23002</v>
-      </c>
-      <c r="D72" s="8">
-        <v>44923.675000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="str">
+        <f>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriqueActionsReservations VALUES(2,2,2, "28/12/2022 16:12");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
-      <c r="B73" t="s">
-        <v>17</v>
+      <c r="B73">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>23500</v>
-      </c>
-      <c r="D73" s="8">
-        <v>44928.454861111109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" t="str">
+        <f>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriqueActionsReservations VALUES(3,4,3, "02/01/2023 10:55");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
-        <v>14</v>
+      <c r="B74">
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>23500</v>
-      </c>
-      <c r="D74" s="8">
-        <v>44928.679166666669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" t="str">
+        <f>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriqueActionsReservations VALUES(4,2,3, "02/01/2023 16:18");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
-        <v>17</v>
+      <c r="B75">
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>23545</v>
-      </c>
-      <c r="D75" s="8">
-        <v>44938.463888888888</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="str">
+        <f>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriqueActionsReservations VALUES(5,2,4, "12/01/2023 11:08");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -2573,190 +2825,259 @@
         <v>134</v>
       </c>
       <c r="E78" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" t="s">
         <v>135</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" t="s">
-        <v>83</v>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>23001</v>
-      </c>
-      <c r="D79" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8">
-        <v>44932.291666666664</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(1,3,1,1,2301,1,"06/01/2023 07:00");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
-      <c r="B80" t="s">
-        <v>81</v>
+      <c r="B80">
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>23001</v>
-      </c>
-      <c r="D80" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80" s="8">
-        <v>44932.3125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(2,2,1,1,2301,2,"06/01/2023 07:30");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
-      <c r="B81" t="s">
-        <v>80</v>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>23002</v>
-      </c>
-      <c r="D81" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
       </c>
       <c r="E81">
+        <v>2302</v>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="F81" s="8">
-        <v>44933.375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(3,1,2,4,2302,4,"07/01/2023 09:00");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
-      <c r="B82" t="s">
-        <v>85</v>
+      <c r="B82">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>23002</v>
-      </c>
-      <c r="D82" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" s="8">
-        <v>44933.604166666664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2302</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H82" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(4,4,2,4,2302,1,"07/01/2023 14:30");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
-      <c r="B83" t="s">
-        <v>80</v>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>23002</v>
-      </c>
-      <c r="D83" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
       </c>
       <c r="E83">
+        <v>2302</v>
+      </c>
+      <c r="F83">
         <v>4</v>
       </c>
-      <c r="F83" s="8">
-        <v>44934.375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H83" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(5,1,2,4,2302,4,"08/01/2023 09:00");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
-      <c r="B84" t="s">
-        <v>80</v>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>23002</v>
-      </c>
-      <c r="D84" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
       </c>
       <c r="E84">
+        <v>2302</v>
+      </c>
+      <c r="F84">
         <v>4</v>
       </c>
-      <c r="F84" s="8">
-        <v>44935.375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(6,1,2,4,2302,4,"09/01/2023 09:00");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
-      <c r="B85" t="s">
-        <v>80</v>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>23002</v>
-      </c>
-      <c r="D85" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
       </c>
       <c r="E85">
+        <v>2302</v>
+      </c>
+      <c r="F85">
         <v>4</v>
       </c>
-      <c r="F85" s="8">
-        <v>44936.375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(7,1,2,4,2302,4,"10/01/2023 09:30");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
-      <c r="B86" t="s">
-        <v>80</v>
+      <c r="B86">
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>23002</v>
-      </c>
-      <c r="D86" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
       </c>
       <c r="E86">
+        <v>2302</v>
+      </c>
+      <c r="F86">
         <v>4</v>
       </c>
-      <c r="F86" s="8">
-        <v>44937.375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(8,1,2,4,2302,4,"11/01/2023 07:45");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" t="s">
-        <v>81</v>
+      <c r="B87">
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>23500</v>
-      </c>
-      <c r="D87" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="8">
-        <v>44937.354166666664</v>
+        <v>2304</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" t="str">
+        <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
+        <v>INSERT INTO Facturations VALUES(9,2,3,2,2304,1,"11/01/2023 08:30");</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/Jeu de données.xlsx
+++ b/Base de données/Jeu de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="176">
   <si>
     <t>IdTypeEmploye</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>NumFacture</t>
+  </si>
+  <si>
+    <t>IdHistorique</t>
+  </si>
+  <si>
+    <t>Reservations</t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,19 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -711,16 +729,13 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -736,9 +751,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -761,48 +785,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -845,13 +827,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -864,6 +839,40 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -880,13 +889,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="IdTypeEmploye" dataDxfId="27"/>
     <tableColumn id="2" name="LibelleTypeEmploye" dataDxfId="26"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="23">
-      <calculatedColumnFormula>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</calculatedColumnFormula>
+    <tableColumn id="3" name="Colonne1" dataDxfId="4">
+      <calculatedColumnFormula>"INSERT INTO TypesEmployes VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -901,7 +910,7 @@
     <tableColumn id="2" name="LibellePrestation"/>
     <tableColumn id="3" name="DescriptionPrestation"/>
     <tableColumn id="4" name="PrixPrestation"/>
-    <tableColumn id="5" name="Colonne1" dataDxfId="14">
+    <tableColumn id="5" name="Colonne1" dataDxfId="19">
       <calculatedColumnFormula>"INSERT INTO Prestations VALUES(" &amp; Tableau10[[#This Row],[IdPrestation]] &amp; ",""" &amp; Tableau10[[#This Row],[LibellePrestation]] &amp; """,""" &amp; Tableau10[[#This Row],[DescriptionPrestation]] &amp; """," &amp; Tableau10[[#This Row],[PrixPrestation]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -915,8 +924,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="IdFidelite"/>
     <tableColumn id="2" name="LibelleFidelite"/>
-    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="24"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="13">
+    <tableColumn id="3" name="DescriptionFidelite" dataDxfId="18"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="17">
       <calculatedColumnFormula>"INSERT INTO Fidelites VALUES(" &amp; Tableau11[[#This Row],[IdFidelite]] &amp; ",""" &amp; Tableau11[[#This Row],[LibelleFidelite]] &amp; """,""" &amp; Tableau11[[#This Row],[DescriptionFidelite]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -931,9 +940,9 @@
     <tableColumn id="1" name="IdHistoriqueNettoyage"/>
     <tableColumn id="2" name="Employé"/>
     <tableColumn id="3" name="Chambre"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="6"/>
-    <tableColumn id="5" name="Colonne1" dataDxfId="5">
-      <calculatedColumnFormula>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</calculatedColumnFormula>
+    <tableColumn id="4" name="DateHeure" dataDxfId="16"/>
+    <tableColumn id="5" name="Colonne1" dataDxfId="3">
+      <calculatedColumnFormula>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ",""" &amp; Tableau12[[#This Row],[DateHeure]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -949,7 +958,7 @@
     <tableColumn id="3" name="PrenomClient"/>
     <tableColumn id="4" name="MailClient" dataCellStyle="Lien hypertexte"/>
     <tableColumn id="5" name="TelClient"/>
-    <tableColumn id="6" name="Colonne1" dataDxfId="4">
+    <tableColumn id="6" name="Colonne1" dataDxfId="15">
       <calculatedColumnFormula>"INSERT INTO Clients VALUES(" &amp; Tableau13[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau13[[#This Row],[NomClient]] &amp; """,""" &amp;Tableau13[[#This Row],[PrenomClient]] &amp; """,""" &amp; Tableau13[[#This Row],[MailClient]] &amp; """,""" &amp; Tableau13[[#This Row],[TelClient]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -964,7 +973,7 @@
     <tableColumn id="1" name="IdClient"/>
     <tableColumn id="2" name="NumParticulier"/>
     <tableColumn id="3" name="Fidelite"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="12">
+    <tableColumn id="4" name="Colonne1" dataDxfId="14">
       <calculatedColumnFormula>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -981,7 +990,7 @@
     <tableColumn id="3" name="Siret"/>
     <tableColumn id="4" name="NumEntreprise"/>
     <tableColumn id="5" name="PourcentageReduction"/>
-    <tableColumn id="6" name="Colonne1" dataDxfId="11">
+    <tableColumn id="6" name="Colonne1" dataDxfId="13">
       <calculatedColumnFormula>"INSERT INTO Entreprises VALUES(" &amp; Tableau15[[#This Row],[IdClient]] &amp; ",""" &amp; Tableau15[[#This Row],[NomEntreprise]] &amp; """,""" &amp; Tableau15[[#This Row],[Siret]] &amp; """," &amp; Tableau15[[#This Row],[NumEntreprise]] &amp; "," &amp; Tableau15[[#This Row],[PourcentageReduction]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -995,13 +1004,13 @@
   <tableColumns count="9">
     <tableColumn id="1" name="IdReservation" dataCellStyle="Normal"/>
     <tableColumn id="2" name="NumReservation" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="DateDebut" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="HeureArriveePrevue" dataDxfId="8"/>
-    <tableColumn id="4" name="DateFin" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="DateDebut" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="HeureArriveePrevue" dataDxfId="11"/>
+    <tableColumn id="4" name="DateFin" dataDxfId="10" dataCellStyle="Normal"/>
     <tableColumn id="5" name="NbPersonnes" dataCellStyle="Normal"/>
     <tableColumn id="6" name="NbChambres" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Client" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Colonne1" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="8" name="Colonne1" dataDxfId="9" dataCellStyle="Normal">
       <calculatedColumnFormula>"INSERT INTO ReservationsSejours VALUES(" &amp; Tableau16[[#This Row],[IdReservation]] &amp; "," &amp; Tableau16[[#This Row],[NumReservation]] &amp; ",""" &amp; Tableau16[[#This Row],[DateDebut]] &amp; """,""" &amp; Tableau16[[#This Row],[HeureArriveePrevue]] &amp; """,""" &amp; Tableau16[[#This Row],[DateFin]] &amp;"""," &amp; Tableau16[[#This Row],[NbPersonnes]] &amp; "," &amp; Tableau16[[#This Row],[NbChambres]] &amp; "," &amp; Tableau16[[#This Row],[Client]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1016,8 +1025,8 @@
     <tableColumn id="1" name="IdHistoriqueActions"/>
     <tableColumn id="2" name="Employe"/>
     <tableColumn id="3" name="Reservation"/>
-    <tableColumn id="4" name="DateHeure" dataDxfId="3"/>
-    <tableColumn id="5" name="Colonne1" dataDxfId="1">
+    <tableColumn id="4" name="DateHeure" dataDxfId="8"/>
+    <tableColumn id="5" name="Colonne1" dataDxfId="7">
       <calculatedColumnFormula>"INSERT INTO HistoriqueActionsReservations VALUES(" &amp; Tableau17[[#This Row],[IdHistoriqueActions]] &amp; "," &amp; Tableau17[[#This Row],[Employe]] &amp; "," &amp; Tableau17[[#This Row],[Reservation]] &amp; ", """ &amp; Tableau17[[#This Row],[DateHeure]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1035,12 +1044,27 @@
     <tableColumn id="4" name="TypePaiement"/>
     <tableColumn id="8" name="NumFacture"/>
     <tableColumn id="5" name="Quantite"/>
-    <tableColumn id="6" name="Date" dataDxfId="2"/>
-    <tableColumn id="7" name="Colonne1" dataDxfId="0">
+    <tableColumn id="6" name="Date" dataDxfId="6"/>
+    <tableColumn id="7" name="Colonne1" dataDxfId="5">
       <calculatedColumnFormula>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tableau19" displayName="Tableau19" ref="A90:D95" totalsRowShown="0">
+  <autoFilter ref="A90:D95"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="IdHistorique"/>
+    <tableColumn id="2" name="Chambre"/>
+    <tableColumn id="3" name="Reservations"/>
+    <tableColumn id="4" name="Colonne1" dataDxfId="1">
+      <calculatedColumnFormula>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1054,7 +1078,7 @@
     <tableColumn id="4" name="Identifiant"/>
     <tableColumn id="5" name="Mdp"/>
     <tableColumn id="6" name="Rôle"/>
-    <tableColumn id="7" name="Colonne1" dataDxfId="22">
+    <tableColumn id="7" name="Colonne1" dataDxfId="25">
       <calculatedColumnFormula>"INSERT INTO Employes VALUES(" &amp; Tableau2[[#This Row],[IdEmploye]] &amp; ",""" &amp; Tableau2[[#This Row],[NomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[PrenomEmploye]] &amp; """,""" &amp; Tableau2[[#This Row],[Identifiant]] &amp; """,""" &amp; Tableau2[[#This Row],[Mdp]] &amp; """," &amp; Tableau2[[#This Row],[Rôle]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1069,8 +1093,8 @@
     <tableColumn id="1" name="IdTypeChambre"/>
     <tableColumn id="2" name="LibelleTypeChambre"/>
     <tableColumn id="3" name="PrixChambre"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="21">
-      <calculatedColumnFormula>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C11 &amp; ");"</calculatedColumnFormula>
+    <tableColumn id="4" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1084,7 +1108,7 @@
     <tableColumn id="1" name="IdEquipementChambre"/>
     <tableColumn id="2" name="LibelleEquipementChambre"/>
     <tableColumn id="3" name="DescriptionEquipementChambre"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="20">
+    <tableColumn id="4" name="Colonne1" dataDxfId="24">
       <calculatedColumnFormula>"INSERT INTO EquipementsChambres VALUES(" &amp; Tableau4[[#This Row],[IdEquipementChambre]] &amp; ",""" &amp; Tableau4[[#This Row],[LibelleEquipementChambre]] &amp; """,""" &amp; Tableau4[[#This Row],[DescriptionEquipementChambre]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1098,7 +1122,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdEtage"/>
     <tableColumn id="2" name="NumEtage"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="19">
+    <tableColumn id="3" name="Colonne1" dataDxfId="23">
       <calculatedColumnFormula>"INSERT INTO Etages VALUES(" &amp; Tableau5[[#This Row],[IdEtage]] &amp; "," &amp; Tableau5[[#This Row],[NumEtage]] &amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1112,7 +1136,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdStatutChambre"/>
     <tableColumn id="2" name="LibelleStatutChambre"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="18">
+    <tableColumn id="3" name="Colonne1" dataDxfId="22">
       <calculatedColumnFormula>"INSERT INTO StatutsChambres VALUES(" &amp; Tableau6[[#This Row],[IdStatutChambre]] &amp; ",""" &amp; Tableau6[[#This Row],[LibelleStatutChambre]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1129,7 +1153,7 @@
     <tableColumn id="3" name="TypeChambre"/>
     <tableColumn id="4" name="StatutChambre"/>
     <tableColumn id="5" name="Etage"/>
-    <tableColumn id="6" name="Colonne1" dataDxfId="17">
+    <tableColumn id="6" name="Colonne1" dataDxfId="21">
       <calculatedColumnFormula>"INSERT INTO Chambres VALUES(" &amp; Tableau7[[#This Row],[IdChambre]] &amp; "," &amp; Tableau7[[#This Row],[NumChambre]] &amp; "," &amp; Tableau7[[#This Row],[TypeChambre]] &amp; "," &amp; Tableau7[[#This Row],[StatutChambre]] &amp; "," &amp; Tableau7[[#This Row],[Etage]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1144,8 +1168,8 @@
     <tableColumn id="1" name="IdPossessionEquipement"/>
     <tableColumn id="2" name="Chambre"/>
     <tableColumn id="3" name="Equipement"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="16">
-      <calculatedColumnFormula>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</calculatedColumnFormula>
+    <tableColumn id="4" name="Colonne1" dataDxfId="2">
+      <calculatedColumnFormula>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1158,7 +1182,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="IdTypePaiement"/>
     <tableColumn id="2" name="LibelleTypePaiement"/>
-    <tableColumn id="3" name="Colonne1" dataDxfId="15">
+    <tableColumn id="3" name="Colonne1" dataDxfId="20">
       <calculatedColumnFormula>"INSERT INTO TypesPaiements VALUES(" &amp; Tableau9[[#This Row],[IdTypePaiement]] &amp; ",""" &amp; Tableau9[[#This Row],[LibelleTypePaiement]] &amp; """);"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1429,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,8 +1513,8 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
-        <v>INSERT INTO TypeEmploye VALUES (1, "Gérant");</v>
+        <f>"INSERT INTO TypesEmployes VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
+        <v>INSERT INTO TypesEmployes VALUES (1, "Gérant");</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1523,8 +1547,8 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
-        <v>INSERT INTO TypeEmploye VALUES (2, "Réceptionniste");</v>
+        <f>"INSERT INTO TypesEmployes VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
+        <v>INSERT INTO TypesEmployes VALUES (2, "Réceptionniste");</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1557,8 +1581,8 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>"INSERT INTO TypeEmploye VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
-        <v>INSERT INTO TypeEmploye VALUES (3, "Personnel d'entretien");</v>
+        <f>"INSERT INTO TypesEmployes VALUES (" &amp; Tableau1[[#This Row],[IdTypeEmploye]] &amp; ", """ &amp; Tableau1[[#This Row],[LibelleTypeEmploye]] &amp; """);"</f>
+        <v>INSERT INTO TypesEmployes VALUES (3, "Personnel d'entretien");</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1668,8 +1692,8 @@
         <v>50</v>
       </c>
       <c r="D10" t="str">
-        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C11 &amp; ");"</f>
-        <v>INSERT INTO TypesChambres VALUES(1,"Standard Simple",54.99);</v>
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(1,"Standard Simple",50);</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1696,8 +1720,8 @@
         <v>139</v>
       </c>
       <c r="D11" t="str">
-        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C12 &amp; ");"</f>
-        <v>INSERT INTO TypesChambres VALUES(2,"Standard Double",65);</v>
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(2,"Standard Double",54.99);</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1724,8 +1748,8 @@
         <v>65</v>
       </c>
       <c r="D12" t="str">
-        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C13 &amp; ");"</f>
-        <v>INSERT INTO TypesChambres VALUES(3,"Deluxe Simple",69.99);</v>
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(3,"Deluxe Simple",65);</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1752,8 +1776,8 @@
         <v>140</v>
       </c>
       <c r="D13" t="str">
-        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C14 &amp; ");"</f>
-        <v>INSERT INTO TypesChambres VALUES(4,"Deluxe Double",134.99);</v>
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(4,"Deluxe Double",69.99);</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,8 +1791,8 @@
         <v>141</v>
       </c>
       <c r="D14" t="str">
-        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; C15 &amp; ");"</f>
-        <v>INSERT INTO TypesChambres VALUES(5,"Suite",);</v>
+        <f>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</f>
+        <v>INSERT INTO TypesChambres VALUES(5,"Suite",134.99);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,8 +1955,8 @@
         <v>1</v>
       </c>
       <c r="J25" t="str">
-        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
-        <v>INSERT INTO PossessionsEquipements VALUES(1,3,1);</v>
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(1,1,3);</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1965,8 +1989,8 @@
         <v>1</v>
       </c>
       <c r="J26" t="str">
-        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
-        <v>INSERT INTO PossessionsEquipements VALUES(2,4,1);</v>
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(2,1,4);</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,8 +2023,8 @@
         <v>1</v>
       </c>
       <c r="J27" t="str">
-        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
-        <v>INSERT INTO PossessionsEquipements VALUES(3,5,1);</v>
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(3,1,5);</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2033,8 +2057,8 @@
         <v>2</v>
       </c>
       <c r="J28" t="str">
-        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
-        <v>INSERT INTO PossessionsEquipements VALUES(4,5,2);</v>
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(4,2,5);</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2067,8 +2091,8 @@
         <v>3</v>
       </c>
       <c r="J29" t="str">
-        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Chambre]] &amp;"," &amp; Tableau8[[#This Row],[Equipement]] &amp;");"</f>
-        <v>INSERT INTO PossessionsEquipements VALUES(5,5,3);</v>
+        <f>"INSERT INTO PossessionsEquipements VALUES(" &amp; Tableau8[[#This Row],[IdPossessionEquipement]] &amp; "," &amp; Tableau8[[#This Row],[Equipement]] &amp;"," &amp; Tableau8[[#This Row],[Chambre]] &amp;");"</f>
+        <v>INSERT INTO PossessionsEquipements VALUES(5,3,5);</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2332,8 +2356,8 @@
         <v>156</v>
       </c>
       <c r="E48" t="str">
-        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesNettoyages VALUES(1,3,1);</v>
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ",""" &amp; Tableau12[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(1,3,1,"12/01/2023 09:35");</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,8 +2374,8 @@
         <v>157</v>
       </c>
       <c r="E49" t="str">
-        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesNettoyages VALUES(2,5,4);</v>
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ",""" &amp; Tableau12[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(2,5,4,"12/01/2023 09:45");</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,8 +2392,8 @@
         <v>158</v>
       </c>
       <c r="E50" t="str">
-        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesNettoyages VALUES(3,5,5);</v>
+        <f>"INSERT INTO HistoriquesNettoyages VALUES(" &amp; Tableau12[[#This Row],[IdHistoriqueNettoyage]] &amp; "," &amp; Tableau12[[#This Row],[Employé]] &amp; "," &amp;Tableau12[[#This Row],[Chambre]] &amp; ",""" &amp; Tableau12[[#This Row],[DateHeure]] &amp; """);"</f>
+        <v>INSERT INTO HistoriquesNettoyages VALUES(3,5,5,"12/01/2023 10:35");</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,12 +2518,12 @@
       <c r="B60">
         <v>10821</v>
       </c>
-      <c r="C60" t="s">
-        <v>34</v>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" s="7" t="str">
         <f>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</f>
-        <v>INSERT INTO Particuliers VALUES(1,10821,"Bronze");</v>
+        <v>INSERT INTO Particuliers VALUES(1,10821,"1");</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2528,12 +2552,12 @@
       <c r="B61">
         <v>20058</v>
       </c>
-      <c r="C61" t="s">
-        <v>36</v>
+      <c r="C61">
+        <v>3</v>
       </c>
       <c r="D61" s="7" t="str">
         <f>"INSERT INTO Particuliers VALUES(" &amp; Tableau14[[#This Row],[IdClient]] &amp; "," &amp; Tableau14[[#This Row],[NumParticulier]] &amp; ",""" &amp; Tableau14[[#This Row],[Fidelite]] &amp; """);"</f>
-        <v>INSERT INTO Particuliers VALUES(3,20058,"Or");</v>
+        <v>INSERT INTO Particuliers VALUES(3,20058,"3");</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -3078,6 +3102,95 @@
       <c r="H87" t="str">
         <f>"INSERT INTO Facturations VALUES(" &amp; Tableau18[[#This Row],[IdFacturation]] &amp; "," &amp; Tableau18[[#This Row],[Prestation]] &amp; "," &amp; Tableau18[[#This Row],[Reservation]] &amp; "," &amp; Tableau18[[#This Row],[TypePaiement]] &amp; "," &amp; Tableau18[[#This Row],[NumFacture]] &amp; "," &amp; Tableau18[[#This Row],[Quantite]] &amp; ",""" &amp; Tableau18[[#This Row],[Date]] &amp; """);"</f>
         <v>INSERT INTO Facturations VALUES(9,2,3,2,2304,1,"11/01/2023 08:30");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesChambres VALUES(1,3,1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="str">
+        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesChambres VALUES(2,3,2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="str">
+        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesChambres VALUES(3,4,2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="str">
+        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesChambres VALUES(4,2,3);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="str">
+        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriquesChambres VALUES(5,5,4);</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3201,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <tableParts count="18">
+  <tableParts count="19">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -3107,6 +3220,7 @@
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Base de données/Jeu de données.xlsx
+++ b/Base de données/Jeu de données.xlsx
@@ -1060,8 +1060,8 @@
     <tableColumn id="1" name="IdHistorique"/>
     <tableColumn id="2" name="Chambre"/>
     <tableColumn id="3" name="Reservations"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="1">
-      <calculatedColumnFormula>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</calculatedColumnFormula>
+    <tableColumn id="4" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1093,7 +1093,7 @@
     <tableColumn id="1" name="IdTypeChambre"/>
     <tableColumn id="2" name="LibelleTypeChambre"/>
     <tableColumn id="3" name="PrixChambre"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="0">
+    <tableColumn id="4" name="Colonne1" dataDxfId="1">
       <calculatedColumnFormula>"INSERT INTO TypesChambres VALUES(" &amp; Tableau3[[#This Row],[IdTypeChambre]] &amp; ",""" &amp; Tableau3[[#This Row],[LibelleTypeChambre]] &amp; """," &amp; Tableau3[[#This Row],[PrixChambre]] &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D92" sqref="D91:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,8 +3129,8 @@
         <v>1</v>
       </c>
       <c r="D91" t="str">
-        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesChambres VALUES(1,3,1);</v>
+        <f>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriqueChambres VALUES(1,3,1);</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3144,8 +3144,8 @@
         <v>2</v>
       </c>
       <c r="D92" t="str">
-        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesChambres VALUES(2,3,2);</v>
+        <f>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriqueChambres VALUES(2,3,2);</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3159,8 +3159,8 @@
         <v>2</v>
       </c>
       <c r="D93" t="str">
-        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesChambres VALUES(3,4,2);</v>
+        <f>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriqueChambres VALUES(3,4,2);</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,8 +3174,8 @@
         <v>3</v>
       </c>
       <c r="D94" t="str">
-        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesChambres VALUES(4,2,3);</v>
+        <f>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriqueChambres VALUES(4,2,3);</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,8 +3189,8 @@
         <v>4</v>
       </c>
       <c r="D95" t="str">
-        <f>"INSERT INTO HistoriquesChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
-        <v>INSERT INTO HistoriquesChambres VALUES(5,5,4);</v>
+        <f>"INSERT INTO HistoriqueChambres VALUES(" &amp; Tableau19[[#This Row],[IdHistorique]] &amp; "," &amp; Tableau19[[#This Row],[Chambre]] &amp; "," &amp; Tableau19[[#This Row],[Reservations]] &amp; ");"</f>
+        <v>INSERT INTO HistoriqueChambres VALUES(5,5,4);</v>
       </c>
     </row>
   </sheetData>
